--- a/src/main/resources/manage/static/file/客户资金兑付模板.xlsx
+++ b/src/main/resources/manage/static/file/客户资金兑付模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin-tg\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1D84A6-D0A3-4CFD-A6C8-9851C53156BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F332FE6-5082-4407-A1A5-34CB3E7F5A91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="270" windowWidth="19230" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="270" windowWidth="19230" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金额</t>
+    <t>金额(元)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,7 +378,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
